--- a/Core/template.xlsx
+++ b/Core/template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\Desktop\Parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kate\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25957901-8710-4059-88B9-6D598B781FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,9 +33,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Додаток 3</t>
-  </si>
-  <si>
-    <t>ОДЕСЬКИЙ НАЦІОНАЛЬНИЙ ПОЛІТЕХНІЧНИЙ УНІВЕРСИТЕТ</t>
   </si>
   <si>
     <t>ІНСТИТУТ КОМП'ЮТЕРНИХ СИСТЕМ</t>
@@ -189,17 +185,20 @@
     <t xml:space="preserve">"__" ___ </t>
   </si>
   <si>
-    <t>2021 року</t>
+    <t>2022 року</t>
+  </si>
+  <si>
+    <t>ДЕРЖАВНИЙ УНІВЕРСИТЕТ "ОДЕСЬКА ПОЛІТЕХНІКА"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -252,6 +251,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -486,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -553,36 +559,35 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,36 +601,49 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,23 +958,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -966,41 +984,41 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1008,42 +1026,42 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="13"/>
     </row>
@@ -1060,10 +1078,10 @@
     <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="53"/>
+      <c r="C9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="31"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
@@ -1073,63 +1091,63 @@
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="64" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="61" t="s">
-        <v>52</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="13"/>
       <c r="F12" s="6"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="9"/>
@@ -1142,47 +1160,47 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="50" t="s">
+      <c r="E16" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="50" t="s">
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="33"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="13">
         <v>1</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16">
@@ -1199,8 +1217,8 @@
       <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16">
@@ -1217,8 +1235,8 @@
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="16">
@@ -1235,8 +1253,8 @@
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16">
@@ -1253,8 +1271,8 @@
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16">
@@ -1271,8 +1289,8 @@
       <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16">
@@ -1289,8 +1307,8 @@
       <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16">
@@ -1307,8 +1325,8 @@
       <c r="A25" s="13">
         <v>8</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16">
@@ -1325,8 +1343,8 @@
       <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16">
@@ -1343,8 +1361,8 @@
       <c r="A27" s="13">
         <v>10</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
       <c r="F27" s="16">
@@ -1361,8 +1379,8 @@
       <c r="A28" s="13">
         <v>11</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16">
@@ -1379,8 +1397,8 @@
       <c r="A29" s="13">
         <v>12</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16">
@@ -1397,8 +1415,8 @@
       <c r="A30" s="13">
         <v>13</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="16">
@@ -1415,8 +1433,8 @@
       <c r="A31" s="13">
         <v>14</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16">
@@ -1433,8 +1451,8 @@
       <c r="A32" s="13">
         <v>15</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="16">
@@ -1451,8 +1469,8 @@
       <c r="A33" s="13">
         <v>16</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="16">
@@ -1469,8 +1487,8 @@
       <c r="A34" s="13">
         <v>17</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16">
@@ -1487,8 +1505,8 @@
       <c r="A35" s="13">
         <v>18</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16">
@@ -1505,8 +1523,8 @@
       <c r="A36" s="13">
         <v>19</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16">
@@ -1523,8 +1541,8 @@
       <c r="A37" s="13">
         <v>20</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16">
@@ -1541,8 +1559,8 @@
       <c r="A38" s="13">
         <v>21</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16">
@@ -1559,8 +1577,8 @@
       <c r="A39" s="13">
         <v>22</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16">
@@ -1577,8 +1595,8 @@
       <c r="A40" s="13">
         <v>23</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16">
@@ -1595,8 +1613,8 @@
       <c r="A41" s="13">
         <v>24</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16">
@@ -1613,8 +1631,8 @@
       <c r="A42" s="13">
         <v>25</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="14"/>
       <c r="E42" s="17"/>
       <c r="F42" s="16">
@@ -1631,8 +1649,8 @@
       <c r="A43" s="13">
         <v>26</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="14"/>
       <c r="E43" s="17"/>
       <c r="F43" s="16">
@@ -1649,8 +1667,8 @@
       <c r="A44" s="13">
         <v>27</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16">
@@ -1667,8 +1685,8 @@
       <c r="A45" s="13">
         <v>28</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16">
@@ -1685,8 +1703,8 @@
       <c r="A46" s="13">
         <v>29</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="14"/>
       <c r="E46" s="17"/>
       <c r="F46" s="16">
@@ -1703,8 +1721,8 @@
       <c r="A47" s="13">
         <v>30</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="14"/>
       <c r="E47" s="17"/>
       <c r="F47" s="16">
@@ -1729,7 +1747,7 @@
     </row>
     <row r="49" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1740,156 +1758,156 @@
       <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A51" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="32" t="s">
+      <c r="B51" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="C51" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="D51" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="35" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="39"/>
+      <c r="F52" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" ht="13.9" customHeight="1">
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="13.95" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="D53" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="43" t="s">
         <v>32</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="42" t="s">
-        <v>33</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A54" s="32"/>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A54" s="55"/>
       <c r="B54" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="D54" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="43"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A55" s="33"/>
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A55" s="29"/>
       <c r="B55" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="43"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A56" s="32"/>
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A56" s="55"/>
       <c r="B56" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="D56" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="43"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A57" s="33"/>
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A57" s="29"/>
       <c r="B57" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="44"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A58" s="32"/>
+    <row r="58" spans="1:8" s="1" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A58" s="55"/>
       <c r="B58" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="D58" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="E58" s="52"/>
+      <c r="F58" s="43" t="s">
         <v>46</v>
-      </c>
-      <c r="E58" s="40"/>
-      <c r="F58" s="42" t="s">
-        <v>47</v>
       </c>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A59" s="33"/>
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="13.95" customHeight="1">
+      <c r="A59" s="29"/>
       <c r="B59" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="44"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
     </row>
@@ -1903,7 +1921,7 @@
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" ht="7.15" customHeight="1">
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="7.2" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1915,7 +1933,7 @@
     </row>
     <row r="62" spans="1:8" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -11347,16 +11365,46 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="D56:E57"/>
+    <mergeCell ref="D58:E59"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F53:F57"/>
     <mergeCell ref="F58:F59"/>
@@ -11373,48 +11421,18 @@
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="D58:E59"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.9055118110236221" right="0.51181102362204722" top="0.35433070866141736" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>